--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT Soft Learning\IT_Java_FullStack\JWD\Assignment\MockProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81382C07-BADC-4C4D-AC12-29B076E09D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA93C0-2067-4FD0-9BBA-D1F92598E1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoang_Anh" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -259,14 +256,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -284,6 +284,630 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B50876F-A5BB-4E64-A6AD-2BAAD394EDDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5052060" y="1630680"/>
+          <a:ext cx="3741420" cy="525780"/>
+          <a:chOff x="3939540" y="1501140"/>
+          <a:chExt cx="3741420" cy="525780"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Arrow: Left 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04164C1-9D98-A08A-16AD-D13382310ABF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3939540" y="1554480"/>
+            <a:ext cx="815340" cy="411480"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48108D2F-A71A-5B16-69E7-19E21E65C148}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4846320" y="1501140"/>
+            <a:ext cx="2834640" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Điền</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> link trực tiếp file của mình trên github, ko phải link repository cả nhóm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB501B1A-9CF6-4C54-8C99-53BD40C22B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4145280" y="1318260"/>
+          <a:ext cx="3741420" cy="525780"/>
+          <a:chOff x="3939540" y="1501140"/>
+          <a:chExt cx="3741420" cy="525780"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Arrow: Left 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40183A3D-970A-A252-E265-9977F9EF4DF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3939540" y="1554480"/>
+            <a:ext cx="815340" cy="411480"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240D4C8A-AAFA-B6A0-ADF5-B2BD4A2A3DDB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4846320" y="1501140"/>
+            <a:ext cx="2834640" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Điền</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> link trực tiếp file của mình trên github, ko phải link repository cả nhóm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9CE528-563F-4E80-A453-5454D4631F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3802380" y="1478280"/>
+          <a:ext cx="3741420" cy="525780"/>
+          <a:chOff x="3939540" y="1501140"/>
+          <a:chExt cx="3741420" cy="525780"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Arrow: Left 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96AC9A7-EBFA-DBDE-AFBC-35DB7FFF0920}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3939540" y="1554480"/>
+            <a:ext cx="815340" cy="411480"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D566CE-7247-DEE7-5B81-3911B85399DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4846320" y="1501140"/>
+            <a:ext cx="2834640" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Điền</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> link trực tiếp file của mình trên github, ko phải link repository cả nhóm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0756A1E0-AC46-E489-70D3-3C54E1E769DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3939540" y="1501140"/>
+          <a:ext cx="3741420" cy="525780"/>
+          <a:chOff x="3939540" y="1501140"/>
+          <a:chExt cx="3741420" cy="525780"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Arrow: Left 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160B834D-546E-4C1C-1116-129A5583672A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3939540" y="1554480"/>
+            <a:ext cx="815340" cy="411480"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D57FF9-BC65-B4B8-F80A-3791EB903AA4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4846320" y="1501140"/>
+            <a:ext cx="2834640" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Điền</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> link trực tiếp file của mình trên github, ko phải link repository cả nhóm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,7 +1176,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,76 +1194,76 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -653,6 +1277,7 @@
     <hyperlink ref="B8" r:id="rId1" xr:uid="{97756743-B39A-450E-B510-1B6CEF7B4B64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -661,7 +1286,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,76 +1304,76 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -762,6 +1387,7 @@
     <hyperlink ref="B8" r:id="rId1" xr:uid="{972D23BF-FC7C-47CD-908F-E5D4DE485C8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -769,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDCA803-221C-4140-8582-859A985E5E0C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,76 +1414,76 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -871,6 +1497,7 @@
     <hyperlink ref="B8" r:id="rId1" xr:uid="{D6E620C6-3210-4D99-86B7-960FD32F74DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -878,13 +1505,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EBCF5B-D4B5-47BF-8D1E-DEED0C94919C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22" style="9" customWidth="1"/>
     <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -897,78 +1524,78 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -982,5 +1609,6 @@
     <hyperlink ref="B8" r:id="rId1" xr:uid="{1B4D6CF2-0AED-4BEC-B36C-6524D276BB65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT Soft Learning\IT_Java_FullStack\JWD\Assignment\MockProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Rental_Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA93C0-2067-4FD0-9BBA-D1F92598E1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D791374-DC04-4E46-A022-C5AA9541242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoang_Anh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
   <si>
     <t>Daily Report on</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Đọc và tìm hiểu UC2</t>
+  </si>
+  <si>
+    <t>https://github.com/Toan-tech/Rental_Car/tree/customer</t>
   </si>
 </sst>
 </file>
@@ -314,8 +317,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5052060" y="1630680"/>
-          <a:ext cx="3741420" cy="525780"/>
+          <a:off x="4911090" y="1386840"/>
+          <a:ext cx="3741420" cy="373380"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -470,7 +473,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4145280" y="1318260"/>
+          <a:off x="4030980" y="1379220"/>
           <a:ext cx="3741420" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
@@ -626,7 +629,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3802380" y="1478280"/>
+          <a:off x="3705225" y="1386840"/>
           <a:ext cx="3741420" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
@@ -782,8 +785,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3939540" y="1501140"/>
-          <a:ext cx="3741420" cy="525780"/>
+          <a:off x="3830955" y="1409700"/>
+          <a:ext cx="3741420" cy="550545"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -1175,17 +1178,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1201,13 +1204,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1215,13 +1218,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1237,13 +1240,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1289,13 +1292,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1311,13 +1314,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1325,13 +1328,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1347,13 +1350,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1361,7 +1364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1395,17 +1398,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDCA803-221C-4140-8582-859A985E5E0C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1421,13 +1424,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1435,13 +1438,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1457,13 +1460,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1509,13 +1512,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1539,7 +1542,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1547,13 +1550,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1569,13 +1572,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>

--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Rental_Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\MockProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D791374-DC04-4E46-A022-C5AA9541242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3583C6-FE12-4EF7-9276-28E9C7B38D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoang_Anh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
   <si>
     <t>Daily Report on</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>https://github.com/Toan-tech/Rental_Car/tree/customer</t>
+  </si>
+  <si>
+    <t>Xây dụng các page dành cho Customer</t>
+  </si>
+  <si>
+    <t>Làm front end</t>
   </si>
 </sst>
 </file>
@@ -317,8 +323,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4911090" y="1386840"/>
-          <a:ext cx="3741420" cy="373380"/>
+          <a:off x="5249228" y="1301115"/>
+          <a:ext cx="3970020" cy="168593"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -473,8 +479,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4030980" y="1379220"/>
-          <a:ext cx="3741420" cy="525780"/>
+          <a:off x="4307205" y="1293495"/>
+          <a:ext cx="3970020" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -629,8 +635,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3705225" y="1386840"/>
-          <a:ext cx="3741420" cy="525780"/>
+          <a:off x="3962400" y="1301115"/>
+          <a:ext cx="3970020" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -785,8 +791,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3830955" y="1409700"/>
-          <a:ext cx="3741420" cy="550545"/>
+          <a:off x="4097655" y="1323975"/>
+          <a:ext cx="3970020" cy="517208"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -1179,16 +1185,16 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="2" max="2" width="46.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,21 +1202,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1218,13 +1224,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1240,13 +1246,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1292,13 +1298,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1314,13 +1320,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1328,13 +1334,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1350,13 +1356,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1402,13 +1408,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1424,13 +1430,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1438,13 +1444,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1460,13 +1466,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1512,13 +1518,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1542,7 +1548,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1550,13 +1556,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1572,13 +1578,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>

--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\MockProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\JAVA\Car\Rental_Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3583C6-FE12-4EF7-9276-28E9C7B38D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A583327E-2B4E-41D6-90CA-B465531F34D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoang_Anh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>Daily Report on</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Làm front end</t>
+  </si>
+  <si>
+    <t>Xây dựng các page liên quan đến authentication</t>
+  </si>
+  <si>
+    <t>Tiếp tục xây dựng các page liên quan đến authentication</t>
+  </si>
+  <si>
+    <t>https://github.com/Toan-tech/Rental_Car/blob/main/src/main/resources/templates/login.html</t>
   </si>
 </sst>
 </file>
@@ -323,8 +332,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5249228" y="1301115"/>
-          <a:ext cx="3970020" cy="168593"/>
+          <a:off x="5044440" y="1325880"/>
+          <a:ext cx="3741420" cy="358140"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -479,8 +488,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4307205" y="1293495"/>
-          <a:ext cx="3970020" cy="525780"/>
+          <a:off x="4137660" y="1470660"/>
+          <a:ext cx="3741420" cy="182880"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -635,8 +644,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3962400" y="1301115"/>
-          <a:ext cx="3970020" cy="525780"/>
+          <a:off x="3810000" y="1325880"/>
+          <a:ext cx="3741420" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -791,8 +800,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4097655" y="1323975"/>
-          <a:ext cx="3970020" cy="517208"/>
+          <a:off x="3939540" y="1348740"/>
+          <a:ext cx="3741420" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -1184,17 +1193,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" customWidth="1"/>
-    <col min="2" max="2" width="46.265625" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1210,13 +1219,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1224,13 +1233,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1246,13 +1255,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1294,17 +1303,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC15B416-BB70-4B35-86D7-C562481CA643}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,21 +1321,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1334,13 +1343,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1356,13 +1365,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1378,12 +1387,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1402,7 @@
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{972D23BF-FC7C-47CD-908F-E5D4DE485C8C}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{5B018C2F-16FA-4277-85A7-6E33B3911954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1408,13 +1417,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.73046875" customWidth="1"/>
-    <col min="2" max="2" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1430,13 +1439,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1444,13 +1453,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1466,13 +1475,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1518,13 +1527,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.3984375" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1540,7 +1549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1548,7 +1557,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1556,13 +1565,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1578,13 +1587,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>

--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\JAVA\Car\Rental_Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\MockProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A583327E-2B4E-41D6-90CA-B465531F34D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647C27E-B92B-4C48-9727-8B2124596418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoang_Anh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>Daily Report on</t>
   </si>
@@ -87,12 +87,6 @@
     <t>https://github.com/Toan-tech/Rental_Car/tree/customer</t>
   </si>
   <si>
-    <t>Xây dụng các page dành cho Customer</t>
-  </si>
-  <si>
-    <t>Làm front end</t>
-  </si>
-  <si>
     <t>Xây dựng các page liên quan đến authentication</t>
   </si>
   <si>
@@ -100,6 +94,15 @@
   </si>
   <si>
     <t>https://github.com/Toan-tech/Rental_Car/blob/main/src/main/resources/templates/login.html</t>
+  </si>
+  <si>
+    <t>Xây dụng các chức năng</t>
+  </si>
+  <si>
+    <t>Làm back end</t>
+  </si>
+  <si>
+    <t>Day 4: 4-Sept</t>
   </si>
 </sst>
 </file>
@@ -332,8 +335,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5044440" y="1325880"/>
-          <a:ext cx="3741420" cy="358140"/>
+          <a:off x="5249228" y="1301115"/>
+          <a:ext cx="3970020" cy="168593"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -488,8 +491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4137660" y="1470660"/>
-          <a:ext cx="3741420" cy="182880"/>
+          <a:off x="4302443" y="1436370"/>
+          <a:ext cx="3970020" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -644,8 +647,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="1325880"/>
-          <a:ext cx="3741420" cy="525780"/>
+          <a:off x="3967163" y="1301115"/>
+          <a:ext cx="3970020" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -800,8 +803,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3939540" y="1348740"/>
-          <a:ext cx="3741420" cy="525780"/>
+          <a:off x="4102418" y="1323975"/>
+          <a:ext cx="3970020" cy="517208"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -1193,39 +1196,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.46484375" customWidth="1"/>
+    <col min="2" max="2" width="46.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1233,13 +1236,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1255,13 +1256,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1303,17 +1304,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC15B416-BB70-4B35-86D7-C562481CA643}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,21 +1322,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1343,13 +1344,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1365,13 +1366,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1387,12 +1388,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1417,13 +1418,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.796875" customWidth="1"/>
+    <col min="2" max="2" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1439,13 +1440,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1453,13 +1454,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1475,13 +1476,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1527,13 +1528,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1557,7 +1558,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1565,13 +1566,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1587,13 +1588,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>

--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\MockProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\JAVA\Rental_Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647C27E-B92B-4C48-9727-8B2124596418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F90FF-2515-4709-966D-C56828D534AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoang_Anh" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,6 @@
     <t>https://github.com/Toan-tech/Rental_Car/tree/customer</t>
   </si>
   <si>
-    <t>Xây dựng các page liên quan đến authentication</t>
-  </si>
-  <si>
-    <t>Tiếp tục xây dựng các page liên quan đến authentication</t>
-  </si>
-  <si>
     <t>https://github.com/Toan-tech/Rental_Car/blob/main/src/main/resources/templates/login.html</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>Day 4: 4-Sept</t>
+  </si>
+  <si>
+    <t>login + register</t>
+  </si>
+  <si>
+    <t>Tiếp tục làm login + register</t>
   </si>
 </sst>
 </file>
@@ -335,8 +335,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5249228" y="1301115"/>
-          <a:ext cx="3970020" cy="168593"/>
+          <a:off x="5044440" y="1325880"/>
+          <a:ext cx="3741420" cy="358140"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -491,8 +491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4302443" y="1436370"/>
-          <a:ext cx="3970020" cy="525780"/>
+          <a:off x="4137660" y="1318260"/>
+          <a:ext cx="3741420" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -647,8 +647,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3967163" y="1301115"/>
-          <a:ext cx="3970020" cy="525780"/>
+          <a:off x="3810000" y="1325880"/>
+          <a:ext cx="3741420" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -803,8 +803,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4102418" y="1323975"/>
-          <a:ext cx="3970020" cy="517208"/>
+          <a:off x="3939540" y="1348740"/>
+          <a:ext cx="3741420" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -1196,39 +1196,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.46484375" customWidth="1"/>
-    <col min="2" max="2" width="46.19921875" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1236,11 +1236,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1256,13 +1256,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1304,17 +1304,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC15B416-BB70-4B35-86D7-C562481CA643}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="33.19921875" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,21 +1322,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1344,13 +1344,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1366,13 +1366,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1388,12 +1388,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="25.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1418,13 +1418,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.796875" customWidth="1"/>
-    <col min="2" max="2" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1440,13 +1440,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1454,13 +1454,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1476,13 +1476,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1528,13 +1528,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.46484375" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1558,7 +1558,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1566,13 +1566,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1588,13 +1588,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>

--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\JAVA\Rental_Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F90FF-2515-4709-966D-C56828D534AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF02D02-0C40-4B07-B3EE-E0D0F835698F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>https://github.com/Toan-tech/Rental_Car/tree/customer</t>
   </si>
   <si>
-    <t>https://github.com/Toan-tech/Rental_Car/blob/main/src/main/resources/templates/login.html</t>
-  </si>
-  <si>
     <t>Xây dụng các chức năng</t>
   </si>
   <si>
@@ -99,10 +96,13 @@
     <t>Day 4: 4-Sept</t>
   </si>
   <si>
-    <t>login + register</t>
-  </si>
-  <si>
-    <t>Tiếp tục làm login + register</t>
+    <t>edit-profile</t>
+  </si>
+  <si>
+    <t>Tiếp tục làm edit-profile</t>
+  </si>
+  <si>
+    <t>https://github.com/Toan-tech/Rental_Car/tree/khanhnahk</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4137660" y="1318260"/>
-          <a:ext cx="3741420" cy="525780"/>
+          <a:ext cx="3741420" cy="365760"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,13 +1219,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1366,10 +1366,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1393,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\JAVA\Rental_Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\MockProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF02D02-0C40-4B07-B3EE-E0D0F835698F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDE45D7-F0BF-406A-87D1-649568E95C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoang_Anh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
   <si>
     <t>Daily Report on</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Làm back end</t>
   </si>
   <si>
-    <t>Day 4: 4-Sept</t>
-  </si>
-  <si>
     <t>edit-profile</t>
   </si>
   <si>
@@ -103,6 +100,18 @@
   </si>
   <si>
     <t>https://github.com/Toan-tech/Rental_Car/tree/khanhnahk</t>
+  </si>
+  <si>
+    <t>Day 6: 6-Sept</t>
+  </si>
+  <si>
+    <t>Gặp vấn đề về page navigation</t>
+  </si>
+  <si>
+    <t>Sửa được lỗi navigation, xây dựng chức năng rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hỏi thầy cách sửa đoạn code </t>
   </si>
 </sst>
 </file>
@@ -335,8 +344,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5044440" y="1325880"/>
-          <a:ext cx="3741420" cy="358140"/>
+          <a:off x="4911090" y="1386840"/>
+          <a:ext cx="3741420" cy="373380"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -491,8 +500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4137660" y="1318260"/>
-          <a:ext cx="3741420" cy="365760"/>
+          <a:off x="4030980" y="1379220"/>
+          <a:ext cx="3741420" cy="382905"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -647,7 +656,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3810000" y="1325880"/>
+          <a:off x="3705225" y="1386840"/>
           <a:ext cx="3741420" cy="525780"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
@@ -803,8 +812,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3939540" y="1348740"/>
-          <a:ext cx="3741420" cy="525780"/>
+          <a:off x="3830955" y="1409700"/>
+          <a:ext cx="3741420" cy="550545"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -1196,25 +1205,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="46.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1222,13 +1231,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1236,11 +1245,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1256,34 +1265,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1304,17 +1313,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC15B416-BB70-4B35-86D7-C562481CA643}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,21 +1331,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1344,13 +1353,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1366,13 +1375,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1380,7 +1389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1388,12 +1397,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1418,13 +1427,13 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1440,13 +1449,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1454,13 +1463,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1476,13 +1485,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1498,7 +1507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1528,13 +1537,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -1558,7 +1567,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1566,13 +1575,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1588,13 +1597,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>

--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\MockProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Cong viec\2024\Bai giang\Object 6 -- Mock\Note\New folder\Rental_Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDE45D7-F0BF-406A-87D1-649568E95C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5957B2B1-DD20-4D5B-801C-D23E218E4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoang_Anh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Daily Report on</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t xml:space="preserve">Hỏi thầy cách sửa đoạn code </t>
+  </si>
+  <si>
+    <t>Làm frontend</t>
+  </si>
+  <si>
+    <t>https://github.com/Toan-tech/Rental_Car/tree/cuong</t>
+  </si>
+  <si>
+    <t>Day 4: 6-Sep</t>
+  </si>
+  <si>
+    <t>Frontend hoàn thiện: 80%</t>
+  </si>
+  <si>
+    <t>Hoàn thiện frontend, đọc và làm backend UC15</t>
   </si>
 </sst>
 </file>
@@ -657,7 +672,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="3705225" y="1386840"/>
-          <a:ext cx="3741420" cy="525780"/>
+          <a:ext cx="3741420" cy="373380"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -1205,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDCA803-221C-4140-8582-859A985E5E0C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,28 +1461,24 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1481,14 +1492,12 @@
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1507,12 +1516,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Member_Daily_Report.xlsx
+++ b/Member_Daily_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Cong viec\2024\Bai giang\Object 6 -- Mock\Note\New folder\Rental_Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT Soft Learning\IT_Java_FullStack\JWD\Assignment\Mock Project\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5957B2B1-DD20-4D5B-801C-D23E218E4A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5C1889-851D-4CE1-A38D-3DFE03692184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoang_Anh" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Daily Report on</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Plan</t>
   </si>
   <si>
-    <t>Đọc toàn bộ yêu cầu và UC1</t>
-  </si>
-  <si>
     <t>Log Q&amp;A</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t xml:space="preserve">Q&amp;A đã log SVN </t>
   </si>
   <si>
-    <t>https://111dztv-2k8.fsoft.fpt.vn/svn/Z79Trainee/trunk/WIP/Batch2/Users/SonNV8</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>Next Plan</t>
   </si>
   <si>
-    <t>Đọc và tìm hiểu UC2</t>
-  </si>
-  <si>
     <t>https://github.com/Toan-tech/Rental_Car/tree/customer</t>
   </si>
   <si>
@@ -127,6 +118,27 @@
   </si>
   <si>
     <t>Hoàn thiện frontend, đọc và làm backend UC15</t>
+  </si>
+  <si>
+    <t>Day 7:11-Sept</t>
+  </si>
+  <si>
+    <t>Làm validate cho addCar và backend để lưu dữ liệu vào DB</t>
+  </si>
+  <si>
+    <t>Validate bằng JS và làm backend</t>
+  </si>
+  <si>
+    <t>Ontime - 45%</t>
+  </si>
+  <si>
+    <t>https://github.com/Toan-tech/Rental_Car/tree/Toan_Owner</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Làm xong addCar sẽ chuyển sang editCar</t>
   </si>
 </sst>
 </file>
@@ -278,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -311,6 +323,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -359,8 +374,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4911090" y="1386840"/>
-          <a:ext cx="3741420" cy="373380"/>
+          <a:off x="5052060" y="1325880"/>
+          <a:ext cx="3741420" cy="358140"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -515,8 +530,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4030980" y="1379220"/>
-          <a:ext cx="3741420" cy="382905"/>
+          <a:off x="4145280" y="1318260"/>
+          <a:ext cx="3741420" cy="365760"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -671,8 +686,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3705225" y="1386840"/>
-          <a:ext cx="3741420" cy="373380"/>
+          <a:off x="3802380" y="1325880"/>
+          <a:ext cx="3741420" cy="358140"/>
           <a:chOff x="3939540" y="1501140"/>
           <a:chExt cx="3741420" cy="525780"/>
         </a:xfrm>
@@ -811,8 +826,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -827,10 +842,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3830955" y="1409700"/>
-          <a:ext cx="3741420" cy="550545"/>
+          <a:off x="3939540" y="1684020"/>
+          <a:ext cx="3741420" cy="563880"/>
           <a:chOff x="3939540" y="1501140"/>
-          <a:chExt cx="3741420" cy="525780"/>
+          <a:chExt cx="3741420" cy="1852749"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -892,7 +907,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="4846320" y="1501140"/>
-            <a:ext cx="2834640" cy="525780"/>
+            <a:ext cx="2834640" cy="1852749"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1224,90 +1239,90 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1332,13 +1347,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,78 +1361,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1438,90 +1453,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDCA803-221C-4140-8582-859A985E5E0C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1542,98 +1557,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EBCF5B-D4B5-47BF-8D1E-DEED0C94919C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="9" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1652,7 @@
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{1B4D6CF2-0AED-4BEC-B36C-6524D276BB65}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{C11548C5-2E59-43B3-BF3B-683B43037DDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
